--- a/tests/models/features/inverse/model_settings.xlsx
+++ b/tests/models/features/inverse/model_settings.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\models\features\inverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46F7364-CA01-4930-8195-0DF61B5F5F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6268BA27-4D96-445F-80DF-00AB18550EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="structure_sets" sheetId="1" r:id="rId1"/>
-    <sheet name="structure_variables" sheetId="2" r:id="rId2"/>
+    <sheet name="structure_variables" sheetId="4" r:id="rId2"/>
     <sheet name="problem" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,26 +27,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>set_key</t>
   </si>
   <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>table_name</t>
-  </si>
-  <si>
     <t>split_problem</t>
   </si>
   <si>
+    <t>copy_from</t>
+  </si>
+  <si>
     <t>table_key</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -56,109 +50,100 @@
     <t>value</t>
   </si>
   <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>rows</t>
-  </si>
-  <si>
-    <t>cols</t>
-  </si>
-  <si>
     <t>exogenous</t>
   </si>
   <si>
+    <t>problem_key</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>expressions</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>variables_info</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>dim: cols</t>
+  </si>
+  <si>
+    <t>cases</t>
+  </si>
+  <si>
+    <t>technologies</t>
+  </si>
+  <si>
+    <t>techs names</t>
+  </si>
+  <si>
+    <t>prods names</t>
+  </si>
+  <si>
+    <t>cases of the problem</t>
+  </si>
+  <si>
+    <t>Technical_coeffs</t>
+  </si>
+  <si>
+    <t>Leontief_inverse_coeffs</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>constant items</t>
+  </si>
+  <si>
+    <t>leontief</t>
+  </si>
+  <si>
+    <t>techs</t>
+  </si>
+  <si>
     <t>endogenous</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>expressions</t>
-  </si>
-  <si>
-    <t>L == minv(I-A)</t>
-  </si>
-  <si>
-    <t>Leontief Inverse matrix</t>
-  </si>
-  <si>
-    <t>Technical_coeffs</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>_set_CASES</t>
-  </si>
-  <si>
-    <t>case</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>technologies</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>_set_PRODUCTS</t>
-  </si>
-  <si>
-    <t>_set_TECHNOLOGIES</t>
-  </si>
-  <si>
-    <t>case, products, technologies</t>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>cases, products, technologies</t>
+  </si>
+  <si>
+    <t>products, technologies</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Leontief_inverse_coeffs</t>
-  </si>
-  <si>
-    <t>Technical coefficients</t>
-  </si>
-  <si>
-    <t>Leontief inverse coefficients</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
-    <t>Constants</t>
-  </si>
-  <si>
-    <t>constants vars</t>
-  </si>
-  <si>
-    <t>constant</t>
-  </si>
-  <si>
-    <t>products, technologies</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
     <t>identity</t>
   </si>
   <si>
-    <t>table_structure</t>
-  </si>
-  <si>
-    <t>name: [c_Name, TEXT]</t>
-  </si>
-  <si>
-    <t>name: [p_Name, TEXT]</t>
-  </si>
-  <si>
-    <t>name: [t_Name, TEXT]</t>
+    <t>dim: rows</t>
+  </si>
+  <si>
+    <t>L == minv(I - A)</t>
   </si>
 </sst>
 </file>
@@ -194,13 +179,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -218,38 +211,41 @@
   <autoFilter ref="A1:E4" xr:uid="{BF0EFEB1-6ECC-43D2-AB72-C998AF198F27}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B25B1879-C5E9-4EB5-B028-F8512D272279}" name="set_key"/>
-    <tableColumn id="2" xr3:uid="{CFB4F1D7-CFFC-4FE1-B14F-5C7A2795C822}" name="symbol"/>
-    <tableColumn id="3" xr3:uid="{A817388D-0FEC-4E55-A559-5E198E460C97}" name="table_name"/>
+    <tableColumn id="9" xr3:uid="{DF8CC285-45E4-43D5-B8D8-803C745D6940}" name="description"/>
     <tableColumn id="4" xr3:uid="{A3D9FB3A-774D-46EA-8E98-EFD15E392CBD}" name="split_problem"/>
-    <tableColumn id="6" xr3:uid="{1413FF9F-D2C6-4509-9E0C-146348636048}" name="table_structure"/>
+    <tableColumn id="2" xr3:uid="{63BC0DE3-0E2B-46D5-92FB-25DE1E0A2CA9}" name="copy_from"/>
+    <tableColumn id="8" xr3:uid="{AD5E32F7-2499-45CB-8B2A-F64E57F8E7E0}" name="filters"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB6E5FDC-ADDB-4F17-8178-C8D1F44ADCB4}" name="Table3" displayName="Table3" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{DB6E5FDC-ADDB-4F17-8178-C8D1F44ADCB4}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5A6F1C1B-5562-46B4-BC85-F746FD6D1DBE}" name="table_key"/>
-    <tableColumn id="2" xr3:uid="{E384D175-7DA2-49C7-B3FC-49DBCD470E65}" name="name"/>
-    <tableColumn id="3" xr3:uid="{C6B3D967-EA77-4A04-9D11-46C4D49CF8F6}" name="type"/>
-    <tableColumn id="4" xr3:uid="{42C7BA45-FFAE-469A-B3C2-CE76EBDED815}" name="coordinates"/>
-    <tableColumn id="5" xr3:uid="{B5D8F399-CD45-4E77-BCC7-A887EAB78252}" name="variable"/>
-    <tableColumn id="6" xr3:uid="{85ABF431-F246-4294-A409-A0264A2F184C}" name="value"/>
-    <tableColumn id="7" xr3:uid="{FEAB5FE3-58DE-4670-862E-052063177A74}" name="rows"/>
-    <tableColumn id="8" xr3:uid="{008091F5-6641-4780-81F5-35FCB69020DE}" name="cols"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7FBD057B-B132-4379-814B-BD2BA1AFF594}" name="Table33" displayName="Table33" ref="A1:J4" totalsRowShown="0">
+  <autoFilter ref="A1:J4" xr:uid="{DB6E5FDC-ADDB-4F17-8178-C8D1F44ADCB4}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{3664E1C1-CDFB-4B96-B741-E3CF345A906A}" name="table_key"/>
+    <tableColumn id="2" xr3:uid="{5DB24C0C-CFD3-4FB5-B53C-BFA40764E5FC}" name="description"/>
+    <tableColumn id="3" xr3:uid="{2CD084FF-A0EF-4965-9069-628404776301}" name="type"/>
+    <tableColumn id="6" xr3:uid="{B7CAE23A-6C35-46F2-A86D-E8752E453E5D}" name="integer"/>
+    <tableColumn id="4" xr3:uid="{727E494E-41A0-4D77-8D19-13F369E12AD0}" name="coordinates"/>
+    <tableColumn id="5" xr3:uid="{5A4D7801-B865-4C40-AD87-418D7622F733}" name="variables_info"/>
+    <tableColumn id="10" xr3:uid="{CC0851B1-83C4-404D-8BB0-4F06479F0740}" name="value"/>
+    <tableColumn id="7" xr3:uid="{D8623746-1C30-46EA-97D5-95DE0D4F3D8A}" name="cases"/>
+    <tableColumn id="8" xr3:uid="{884F320F-DEF8-4E96-B1F4-579BB9297CB9}" name="products"/>
+    <tableColumn id="9" xr3:uid="{0DF16758-74BF-4847-8B66-F69C962A8892}" name="technologies"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9E7FEE58-959B-4A76-BD2C-C7A4A140E173}" name="Table4" displayName="Table4" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{9E7FEE58-959B-4A76-BD2C-C7A4A140E173}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9E7FEE58-959B-4A76-BD2C-C7A4A140E173}" name="Table4" displayName="Table4" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{9E7FEE58-959B-4A76-BD2C-C7A4A140E173}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{339B6BC6-DC77-44F3-BC7D-5887B7C1C68A}" name="problem_key" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7D3A5DDD-E4D2-4BFD-8F61-20DAAF76C565}" name="objective"/>
     <tableColumn id="3" xr3:uid="{F83410DB-FD97-4F82-A158-44491E25E434}" name="expressions"/>
-    <tableColumn id="4" xr3:uid="{43081833-0EE4-4FC1-955F-5D78145539E2}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -520,17 +516,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="3" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="51.6328125" customWidth="1"/>
     <col min="6" max="7" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -539,72 +534,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -612,117 +584,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB1223C-005A-485D-B8DC-21499F0D118B}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F872E8C-C62E-4F3F-A20F-41906D0144C1}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
-    <col min="7" max="8" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -735,32 +716,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB4DB9B-67B8-45E9-9CD6-D02B1BE46AE7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>15</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
